--- a/Backend/myapp/assets/test_1.xlsx
+++ b/Backend/myapp/assets/test_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raghav/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raghav/Documents/Emory /Emory Srping Sem 2024/Internship/SQL-Query-Execution-Egnine/Backend/myapp/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8E6E3-FBF3-6248-8612-661853EF3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2613743F-1BF1-524D-A139-8242682DB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
